--- a/src/semeio/fmudesign/examples/ex2_correlations.xlsx
+++ b/src/semeio/fmudesign/examples/ex2_correlations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FCUR/git/semeio/tests/fmudesign/data/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Appl\github\semeio\src\semeio\fmudesign\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC7CD35-9D11-9848-8278-0FE4092CA675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21214E99-EAA1-4E60-A4EA-A49739267338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32900" windowHeight="21620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general_input" sheetId="1" r:id="rId1"/>
@@ -30,316 +30,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Specifies that this is a setup for a onebyone design and not a design of morris type</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Number of repeated seeds per sensitivity/sensitivity case. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>This is overrided if number of realisations is specified in the numreal column in designinput.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Alternatives:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">- default gives seed numbers 1000, 1001, 1002, 1003,---
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">- None (seed number is not added as parameter in spreadsheet) 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>- filename for file with list of seeds in ert/input/distributions/If only one seed is given in the external seed file, this is used for all realisations – NOT IMPLEMENTED YET</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Alternatives:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">- None
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">- name of sheet in this workbook with background parameters
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">- Name of external file with background parameters. Must end with .xlsx or .csv and be readable as pandas dataframe with parameter names as column headers.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Path is relative to where script is run from</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Trine Alsos:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>numreal = repeats if not specified in table</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Trine Alsos:
-For case sensitivities</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>provide names for case1 and case2 and values. Values can be string</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Trine Alsos:
-Distname and dist_param1, .. only for p10_p90 sensitivities or background parameters</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Order of distribution parameters must be predefines (and where applicable, same as used for ert in GEN_KW)
-e.g. 
-normal(mean, std dev,min, max) – where min/max is optional and will give truncated gaussian
-lognormal(mean, stddev, min, max) – where min/max is optional and will give truncated lognormal
-uniform(from,to)loguniform(from, to)triangular(low, mode, high)
-discrete((value1, value2, value3,..,value_n) (weight1, weight2, weight3,..weight_n))</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Outcomes, split with comma</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>fractions</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Trine Alsos:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Used both as default and as base case value for single sensitivities.
-Values can be strings or numbers</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -387,9 +77,6 @@
     <t>background</t>
   </si>
   <si>
-    <t>doe1.xlsx</t>
-  </si>
-  <si>
     <t>sensname</t>
   </si>
   <si>
@@ -619,6 +306,9 @@
   </si>
   <si>
     <t>distribution_seed</t>
+  </si>
+  <si>
+    <t>ex2_doe1.xlsx</t>
   </si>
 </sst>
 </file>
@@ -642,7 +332,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -650,11 +339,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1464,7 +1153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1851,6 +1540,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2134,6 +1827,222 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{481E02A4-F169-B467-0E53-3F31E073B35C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13001625" cy="12696825"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82267850-47AD-60B1-0904-73BCC2888F60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13001625" cy="12696825"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B66BC4E7-1B56-6DF0-0779-3407C6DFBF0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13001625" cy="12696825"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB906D56-0501-71A3-14CA-D0BE72C1F22D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13001625" cy="12696825"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2384,6 +2293,276 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D720BDB8-6072-BB2B-1C4B-8A7D029926FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12696825" cy="12696825"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66224F0A-072A-B33E-4A5C-E2850270FC3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12696825" cy="12696825"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A23796-4A8A-B574-53EC-71E4CA56D6C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12696825" cy="12696825"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B0433C-1900-0280-D883-912892E656FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12696825" cy="12696825"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA44C54E-ECFD-B82C-50F5-1C30FB98DFA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12696825" cy="12696825"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2438,6 +2617,60 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0420326F-75A3-97D4-313B-18008BEF506C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12696825" cy="12696825"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2485,6 +2718,168 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A48752-975E-B827-9C81-E373865F1991}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12696825" cy="12696825"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E721FA7-F902-ABDF-74F0-7347FC25C3F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12858750" cy="12696825"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17763CB8-AFFF-ED71-B44E-1C34E715BD1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12858750" cy="12696825"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
@@ -2811,21 +3206,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="77.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2833,7 +3228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2841,7 +3236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2849,112 +3244,114 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5">
-        <v>1234</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView topLeftCell="K15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="8" width="11.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" customWidth="1"/>
-    <col min="10" max="10" width="33.1640625" style="2" customWidth="1"/>
-    <col min="11" max="14" width="11.83203125" style="2" customWidth="1"/>
-    <col min="15" max="17" width="11.83203125" customWidth="1"/>
-    <col min="20" max="20" width="9.83203125" customWidth="1"/>
-    <col min="22" max="22" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="P1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>22</v>
-      </c>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>23</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="21"/>
@@ -2970,25 +3367,25 @@
       <c r="O2" s="28"/>
       <c r="P2" s="29"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="E3" s="34" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>27</v>
       </c>
       <c r="F3" s="31">
         <v>-1</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="35">
         <v>1</v>
@@ -3002,22 +3399,22 @@
       <c r="O3" s="41"/>
       <c r="P3" s="42"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="44"/>
       <c r="C4" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="47" t="s">
-        <v>31</v>
-      </c>
       <c r="F4" s="48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="48"/>
       <c r="H4" s="49"/>
@@ -3030,25 +3427,25 @@
       <c r="O4" s="55"/>
       <c r="P4" s="56"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="58"/>
       <c r="C5" s="59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="61" t="s">
         <v>33</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>34</v>
       </c>
       <c r="F5" s="58">
         <v>-1</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="62">
         <v>1</v>
@@ -3062,12 +3459,12 @@
       <c r="O5" s="68"/>
       <c r="P5" s="69"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="70"/>
       <c r="B6" s="71"/>
       <c r="C6" s="72"/>
       <c r="D6" s="73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="74"/>
       <c r="F6" s="71">
@@ -3086,12 +3483,12 @@
       <c r="O6" s="81"/>
       <c r="P6" s="82"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="83"/>
       <c r="B7" s="84"/>
       <c r="C7" s="85"/>
       <c r="D7" s="86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="84">
@@ -3110,28 +3507,28 @@
       <c r="O7" s="94"/>
       <c r="P7" s="95"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="97">
         <v>10</v>
       </c>
       <c r="C8" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="99" t="s">
         <v>39</v>
-      </c>
-      <c r="D8" s="99" t="s">
-        <v>40</v>
       </c>
       <c r="E8" s="100"/>
       <c r="F8" s="97"/>
       <c r="G8" s="97"/>
       <c r="H8" s="101"/>
       <c r="I8" s="102" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="103" t="s">
         <v>41</v>
-      </c>
-      <c r="J8" s="103" t="s">
-        <v>42</v>
       </c>
       <c r="K8" s="104">
         <v>1</v>
@@ -3142,25 +3539,25 @@
       <c r="O8" s="102"/>
       <c r="P8" s="107"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="109">
         <v>10</v>
       </c>
       <c r="C9" s="110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="112"/>
       <c r="F9" s="109"/>
       <c r="G9" s="109"/>
       <c r="H9" s="113"/>
       <c r="I9" s="114" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" s="115">
         <v>3</v>
@@ -3178,19 +3575,19 @@
       <c r="O9" s="114"/>
       <c r="P9" s="119"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="120"/>
       <c r="B10" s="121"/>
       <c r="C10" s="122"/>
       <c r="D10" s="123" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="124"/>
       <c r="F10" s="121"/>
       <c r="G10" s="121"/>
       <c r="H10" s="125"/>
       <c r="I10" s="126" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J10" s="127">
         <v>0</v>
@@ -3204,19 +3601,19 @@
       <c r="O10" s="126"/>
       <c r="P10" s="131"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="120"/>
       <c r="B11" s="121"/>
       <c r="C11" s="122"/>
       <c r="D11" s="123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="124"/>
       <c r="F11" s="121"/>
       <c r="G11" s="121"/>
       <c r="H11" s="125"/>
       <c r="I11" s="126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11" s="127">
         <v>1</v>
@@ -3232,25 +3629,25 @@
       <c r="O11" s="126"/>
       <c r="P11" s="131"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="132"/>
       <c r="B12" s="133"/>
       <c r="C12" s="134"/>
       <c r="D12" s="135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="136"/>
       <c r="F12" s="133"/>
       <c r="G12" s="133"/>
       <c r="H12" s="137"/>
       <c r="I12" s="138" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="139" t="s">
+      <c r="K12" s="140" t="s">
         <v>52</v>
-      </c>
-      <c r="K12" s="140" t="s">
-        <v>53</v>
       </c>
       <c r="L12" s="141"/>
       <c r="M12" s="142"/>
@@ -3258,25 +3655,25 @@
       <c r="O12" s="138"/>
       <c r="P12" s="143"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="144" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="145">
         <v>30</v>
       </c>
       <c r="C13" s="146" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="147" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="148"/>
       <c r="F13" s="145"/>
       <c r="G13" s="145"/>
       <c r="H13" s="149"/>
       <c r="I13" s="150" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J13" s="151">
         <v>0</v>
@@ -3290,23 +3687,23 @@
         <v>2</v>
       </c>
       <c r="O13" s="155" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P13" s="156"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="144"/>
       <c r="B14" s="145"/>
       <c r="C14" s="146"/>
       <c r="D14" s="147" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="148"/>
       <c r="F14" s="145"/>
       <c r="G14" s="145"/>
       <c r="H14" s="149"/>
       <c r="I14" s="150" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J14" s="151">
         <v>0</v>
@@ -3320,23 +3717,23 @@
         <v>3</v>
       </c>
       <c r="O14" s="155" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P14" s="156"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="144"/>
       <c r="B15" s="145"/>
       <c r="C15" s="146"/>
       <c r="D15" s="147" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" s="148"/>
       <c r="F15" s="145"/>
       <c r="G15" s="145"/>
       <c r="H15" s="149"/>
       <c r="I15" s="150" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J15" s="151">
         <v>1</v>
@@ -3350,23 +3747,23 @@
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="155" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P15" s="156"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="157"/>
       <c r="B16" s="158"/>
       <c r="C16" s="159"/>
       <c r="D16" s="160" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="161"/>
       <c r="F16" s="158"/>
       <c r="G16" s="158"/>
       <c r="H16" s="162"/>
       <c r="I16" s="163" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J16" s="164">
         <v>1</v>
@@ -3378,22 +3775,22 @@
       <c r="M16" s="167"/>
       <c r="N16" s="167"/>
       <c r="O16" s="155" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P16" s="156"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="108" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="109">
         <v>11</v>
       </c>
       <c r="C17" s="110" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="111" t="s">
         <v>62</v>
-      </c>
-      <c r="D17" s="111" t="s">
-        <v>63</v>
       </c>
       <c r="E17" s="168"/>
       <c r="F17" s="169"/>
@@ -3407,15 +3804,15 @@
       <c r="N17" s="118"/>
       <c r="O17" s="171"/>
       <c r="P17" s="119" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="120"/>
       <c r="B18" s="121"/>
       <c r="C18" s="122"/>
       <c r="D18" s="123" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="172"/>
       <c r="F18" s="173"/>
@@ -3430,12 +3827,12 @@
       <c r="O18" s="175"/>
       <c r="P18" s="131"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="120"/>
       <c r="B19" s="121"/>
       <c r="C19" s="122"/>
       <c r="D19" s="123" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="172"/>
       <c r="F19" s="173"/>
@@ -3450,12 +3847,12 @@
       <c r="O19" s="175"/>
       <c r="P19" s="131"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="132"/>
       <c r="B20" s="133"/>
       <c r="C20" s="134"/>
       <c r="D20" s="135" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="176"/>
       <c r="F20" s="177"/>
@@ -3474,237 +3871,235 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="190" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="191" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>68</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>71</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3713,28 +4108,33 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="190" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="190" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="190" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="190" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>55</v>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="190" t="s">
+        <v>54</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -3743,12 +4143,12 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>58</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="190" t="s">
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -3756,24 +4156,24 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>59</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="190" t="s">
+        <v>58</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>60</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="190" t="s">
+        <v>59</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -3799,49 +4199,50 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="180" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="181" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="182" t="s">
+      <c r="D1" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="183" t="s">
+      <c r="E1" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="183" t="s">
+      <c r="F1" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="183" t="s">
+      <c r="G1" s="183" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="183" t="s">
+      <c r="H1" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="184" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="185" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="186" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="187">
         <v>0</v>
@@ -3855,15 +4256,15 @@
         <v>2</v>
       </c>
       <c r="H2" s="155" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="188" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="188" t="s">
-        <v>81</v>
-      </c>
       <c r="B3" s="189" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -3878,12 +4279,12 @@
       </c>
       <c r="H3" s="155"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="188" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="189" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -3916,26 +4317,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="190"/>
+      <c r="B1" s="190" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="190" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="190" t="s">
         <v>81</v>
       </c>
-      <c r="D1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>79</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="190" t="s">
+        <v>78</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -3943,27 +4348,27 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>81</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="190" t="s">
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>82</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="190" t="s">
+        <v>81</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>

--- a/src/semeio/fmudesign/examples/ex2_correlations.xlsx
+++ b/src/semeio/fmudesign/examples/ex2_correlations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Appl\github\semeio\src\semeio\fmudesign\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21214E99-EAA1-4E60-A4EA-A49739267338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2887A81E-2BAD-4051-9A45-43D84DB24C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general_input" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="84">
   <si>
     <t>designtype</t>
   </si>
@@ -1146,7 +1146,9 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1530,9 +1532,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1542,6 +1541,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2887,6 +2889,60 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F63EC89-21E6-7E43-5E19-C11516D2A618}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12858750" cy="12696825"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3210,7 +3266,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3248,7 +3304,7 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3256,7 +3312,7 @@
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>42</v>
       </c>
     </row>
@@ -3271,8 +3327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3288,7 +3344,7 @@
     <col min="11" max="13" width="11.85546875" style="2" customWidth="1"/>
     <col min="14" max="14" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.85546875" customWidth="1"/>
     <col min="20" max="20" width="9.85546875" customWidth="1"/>
     <col min="22" max="22" width="9.85546875" customWidth="1"/>
@@ -3889,10 +3945,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="191" t="s">
+      <c r="B1" s="190" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4119,21 +4175,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="189" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="190" t="s">
+      <c r="C1" s="189" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="190" t="s">
+      <c r="D1" s="189" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="190" t="s">
+      <c r="E1" s="189" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="189" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="2">
@@ -4144,7 +4200,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="189" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -4157,7 +4213,7 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="189" t="s">
         <v>58</v>
       </c>
       <c r="B4" s="2">
@@ -4172,7 +4228,7 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="190" t="s">
+      <c r="A5" s="189" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="2">
@@ -4199,7 +4255,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4233,26 +4289,26 @@
       <c r="G1" s="183" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="184" t="s">
+      <c r="H1" s="191" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="184" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="187">
+      <c r="C2" s="186">
         <v>0</v>
       </c>
-      <c r="D2" s="187">
+      <c r="D2" s="186">
         <v>1</v>
       </c>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187">
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186">
         <v>2</v>
       </c>
       <c r="H2" s="155" t="s">
@@ -4260,10 +4316,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="187" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="189" t="s">
+      <c r="B3" s="188" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="2">
@@ -4277,13 +4333,15 @@
       <c r="G3" s="2">
         <v>2</v>
       </c>
-      <c r="H3" s="155"/>
+      <c r="H3" s="155" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="187" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="189" t="s">
+      <c r="B4" s="188" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="2">
@@ -4299,7 +4357,9 @@
       <c r="G4" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="155"/>
+      <c r="H4" s="155" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -4317,7 +4377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -4327,19 +4387,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="190"/>
-      <c r="B1" s="190" t="s">
+      <c r="A1" s="189"/>
+      <c r="B1" s="189" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="190" t="s">
+      <c r="C1" s="189" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="190" t="s">
+      <c r="D1" s="189" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="189" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="2">
@@ -4349,7 +4409,7 @@
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="189" t="s">
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -4361,7 +4421,7 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="189" t="s">
         <v>81</v>
       </c>
       <c r="B4" s="2">
